--- a/Exercicios/Planilha Exercicio - Universidade.xlsx
+++ b/Exercicios/Planilha Exercicio - Universidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rapahel\Programação\Curso Udemy Banco de Dados\Exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE419E7-BF4B-48D3-A6C8-9812FA1FCB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904C477F-0970-43C3-8F54-3BB8840AF9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{38E8B747-3F2D-40BC-8C87-6F872CF8623F}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{38E8B747-3F2D-40BC-8C87-6F872CF8623F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>TABELA ALUNOS</t>
   </si>
@@ -200,9 +200,6 @@
     <t>AVENIDA ROBERTO FREIRE</t>
   </si>
   <si>
-    <t>TURMA</t>
-  </si>
-  <si>
     <t>COD_TURMA</t>
   </si>
   <si>
@@ -231,13 +228,70 @@
   </si>
   <si>
     <t xml:space="preserve"> NATAL</t>
+  </si>
+  <si>
+    <t>TABELA TURMA</t>
+  </si>
+  <si>
+    <t>TABELA HISTORICO</t>
+  </si>
+  <si>
+    <t>FREQUENCIA</t>
+  </si>
+  <si>
+    <t>NOTA</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>7.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +299,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +338,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -290,16 +357,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,13 +378,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA99F74-1356-4998-A1F1-2749EB61E082}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,225 +745,227 @@
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="14">
         <v>2015010101</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>212131</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="14">
         <v>2015010102</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>122135</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>64</v>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="14">
         <v>2015010103</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>192011</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="14">
         <v>2015010104</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="14">
         <v>2015010105</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="14">
         <v>2015010106</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>2015010107</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2015010107</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="14">
         <v>2015010108</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="1">
@@ -892,26 +975,26 @@
         <v>2015</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="14">
         <v>2015010109</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="1">
@@ -921,26 +1004,26 @@
         <v>2015</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2015010111</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="14">
+        <v>2015010110</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="1">
@@ -950,18 +1033,18 @@
         <v>2015</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="1">
@@ -971,14 +1054,14 @@
         <v>2015</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="16">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="1">
@@ -988,19 +1071,19 @@
         <v>2015</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="F15" s="16">
+        <v>6</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="1">
@@ -1010,80 +1093,568 @@
         <v>2015</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="F18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="F20" s="14">
+        <v>2015010101</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>212131</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="F21" s="14">
+        <v>2015010101</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="16">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>192011</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="14">
+        <v>2015010102</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="16">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>212131</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="14">
+        <v>2015010102</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="16">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>122135</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="14">
+        <v>2015010103</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="16">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>192011</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="14">
+        <v>2015010103</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="16">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>212131</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="14">
+        <v>2015010104</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>212131</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K26" s="13">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="14">
+        <v>2015010104</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="16">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>122135</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="15"/>
+      <c r="F28" s="14">
+        <v>2015010105</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="16">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>212131</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K28" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="14">
+        <v>2015010105</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="16">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>192011</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="14">
+        <v>2015010106</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="16">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>212131</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="14">
+        <v>2015010106</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="16">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>192011</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="14">
+        <v>2015010107</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="16">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>192011</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K32" s="13">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33" s="14">
+        <v>2015010107</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="16">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1">
+        <v>122135</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K33" s="13">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F34" s="14">
+        <v>2015010108</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="16">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1">
+        <v>122135</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K34" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F35" s="14">
+        <v>2015010108</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="16">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>212131</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F36" s="14">
+        <v>2015010109</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="16">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>212131</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F37" s="14">
+        <v>2015010109</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="16">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1">
+        <v>192011</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F38" s="14">
+        <v>2015010110</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="16">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>192011</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K38" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F39" s="14">
+        <v>2015010110</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="16">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>122135</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K39" s="13">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F18:L18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
